--- a/KS_연도별_보고서작성/Result/KS Vendor Information 2019 Yearly Report.xlsx
+++ b/KS_연도별_보고서작성/Result/KS Vendor Information 2019 Yearly Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\uipath\KS_연도별_보고서작성\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_연도별_보고서작성\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63EB41-10EF-4CD7-AE8D-9053BAE8F5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB72CAC-5B66-4903-A8D8-077BBA80B447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="2052" windowWidth="18792" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2544" windowWidth="17256" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS_Vendor_Information_Template" sheetId="1" r:id="rId1"/>
@@ -46,34 +46,34 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FR121212</t>
+    <t>IT145632</t>
   </si>
   <si>
-    <t>Limited Adventure</t>
+    <t>Softing Company</t>
   </si>
   <si>
-    <t>Avenue Marcheariere 18</t>
+    <t>Via Longa 201</t>
   </si>
   <si>
-    <t>Paris, France</t>
+    <t>Rimini, Italy</t>
   </si>
   <si>
-    <t>C:\Users\USER\Documents\uipath\KS_연도별_보고서작성\SourceData\FR121212\Yearly_Report-2019-FR121212</t>
+    <t>C:\RPA\KS_연도별_보고서작성\SourceData\IT145632\Yearly_Report-2019-IT145632</t>
   </si>
   <si>
-    <t>RO094782</t>
+    <t>RO874232</t>
   </si>
   <si>
-    <t>Mecatronic Group</t>
+    <t>Telephone Systems</t>
   </si>
   <si>
-    <t>Bulevardul Unirii 11</t>
+    <t>Intrarea Telefoanelor 112</t>
   </si>
   <si>
-    <t>Iasi, Romania</t>
+    <t>Bucuresti, Romania</t>
   </si>
   <si>
-    <t>C:\Users\USER\Documents\uipath\KS_연도별_보고서작성\SourceData\RO094782\Yearly_Report-2019-RO094782</t>
+    <t>C:\RPA\KS_연도별_보고서작성\SourceData\RO874232\Yearly_Report-2019-RO874232</t>
   </si>
 </sst>
 </file>
